--- a/src/test/resources/testdata/WebAutomationTestData.xlsx
+++ b/src/test/resources/testdata/WebAutomationTestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="4005"/>
   </bookViews>
   <sheets>
-    <sheet name="UserPermissions" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductItemReview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,49 +19,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>finance_read_only</t>
-  </si>
-  <si>
-    <t>Password4</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ar_team_4</t>
-  </si>
-  <si>
-    <t>Password3</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>UserPermission</t>
-  </si>
-  <si>
-    <t>missingClient_isEditable</t>
-  </si>
-  <si>
-    <t>search_isEditable</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>WriteReview</t>
+  </si>
+  <si>
+    <t>ReviewTitle</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>BirthMonth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>RecommendRating</t>
+  </si>
+  <si>
+    <t>OverallRating</t>
+  </si>
+  <si>
+    <t>Cigniti</t>
+  </si>
+  <si>
+    <t>abc@cigniti.com</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Its is good product to use. No side effects.</t>
+  </si>
+  <si>
+    <t>AgeRange</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>BirthYear</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>18to24</t>
+  </si>
+  <si>
+    <t>Vaseline Review</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,15 +137,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,68 +439,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="20.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="E3" s="5">
+        <v>502032</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/WebAutomationTestData.xlsx
+++ b/src/test/resources/testdata/WebAutomationTestData.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E619F6A8-CD0D-45BD-BE6B-0EAE73AC16EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="4005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="3705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductItemReview" sheetId="1" r:id="rId1"/>
+    <sheet name="URLList" sheetId="2" r:id="rId2"/>
+    <sheet name="LinksStatus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>WriteReview</t>
   </si>
@@ -85,12 +88,33 @@
   </si>
   <si>
     <t>2010</t>
+  </si>
+  <si>
+    <t>TestBrokenLinks</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>http://www.breyers.com/product</t>
+  </si>
+  <si>
+    <t>http://www.breyers.com/es-US/product</t>
+  </si>
+  <si>
+    <t>http://www.breyers.com/es-US/recipes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +182,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,12 +463,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -535,9 +558,81 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B9525E-057D-4AF4-B344-8F7E472BD77B}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{76729170-DB76-4EAE-98D0-8CEAC7B8B9A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5050D6A9-62F0-4AC0-948D-D9A3F678A44A}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>